--- a/MauchuanExcel/mauchuan_nhapkho.xlsx
+++ b/MauchuanExcel/mauchuan_nhapkho.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>TEN_THUOC</t>
   </si>
@@ -54,35 +54,58 @@
     <t>gia_phuthu_traituyen</t>
   </si>
   <si>
-    <t>NGAY_HET_HAN</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>MORIHEPAMIN INFUSION 200ML</t>
-  </si>
-  <si>
-    <t>Túi</t>
-  </si>
-  <si>
-    <t>Ma_QD40</t>
-  </si>
-  <si>
     <t>so_dky</t>
   </si>
   <si>
     <t>so_qdinhthau</t>
   </si>
   <si>
-    <t>L01</t>
+    <t>ma_thuoc</t>
+  </si>
+  <si>
+    <t>NGAY_HETHAN</t>
+  </si>
+  <si>
+    <t>B012</t>
+  </si>
+  <si>
+    <t>Bupivacaine WPW Spinal 0,5% Heavy</t>
+  </si>
+  <si>
+    <t>Ống</t>
+  </si>
+  <si>
+    <t>M001</t>
+  </si>
+  <si>
+    <t>Marcain</t>
+  </si>
+  <si>
+    <t>Lọ</t>
+  </si>
+  <si>
+    <t>M002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcain 0.5% inj. </t>
+  </si>
+  <si>
+    <t>E010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etomidate-Lipuro Inj </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +129,51 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -124,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,11 +200,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -144,13 +240,79 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="10">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 10" xfId="6"/>
+    <cellStyle name="Comma 8" xfId="4"/>
+    <cellStyle name="Comma 9" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="2"/>
+    <cellStyle name="Normal 12" xfId="3"/>
+    <cellStyle name="Normal 6" xfId="9"/>
+    <cellStyle name="Normal 8" xfId="7"/>
+    <cellStyle name="Normal 8 2" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -449,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -464,7 +626,7 @@
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.140625" style="1" bestFit="1" customWidth="1"/>
@@ -474,102 +636,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>18</v>
+      <c r="P1" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4">
-        <v>42657</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>106209</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1062090</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>108000</v>
-      </c>
-      <c r="K2" s="3">
-        <v>108000</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="A2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="18">
+        <v>43032</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>37800</v>
+      </c>
+      <c r="G2" s="21">
+        <v>0</v>
+      </c>
+      <c r="H2" s="22">
+        <f xml:space="preserve"> PRODUCT(E2,F2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="21">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>37800</v>
+      </c>
+      <c r="K2" s="7">
+        <v>37800</v>
+      </c>
+      <c r="L2" s="21">
+        <v>0</v>
+      </c>
+      <c r="M2" s="21">
+        <v>0</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="18">
+        <v>43032</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="20">
+        <v>61</v>
+      </c>
+      <c r="F3" s="9">
+        <v>49020</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <f t="shared" ref="H3:H5" si="0" xml:space="preserve"> PRODUCT(E3,F3)</f>
+        <v>2990220</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>49020</v>
+      </c>
+      <c r="K3" s="11">
+        <v>49020</v>
+      </c>
+      <c r="L3" s="21">
+        <v>0</v>
+      </c>
+      <c r="M3" s="21">
+        <v>0</v>
+      </c>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="18">
+        <v>43032</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="20">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43138</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
+        <f t="shared" si="0"/>
+        <v>345104</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>43138</v>
+      </c>
+      <c r="K4" s="7">
+        <v>43138</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
+        <v>0</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="18">
+        <v>43032</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>120000</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>120000</v>
+      </c>
+      <c r="K5" s="7">
+        <v>120000</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <v>0</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
